--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxRecord.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxRecord.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394F3E9D-FEBF-4EE3-A6FF-95BEBD392D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F038AED7-2AF3-42B3-BFE0-303C54A23018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1666,23 +1667,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="53.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.77734375" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="3"/>
+    <col min="1" max="1" width="5.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="53.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.81640625" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="21.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
@@ -1697,7 +1698,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="5" t="s">
@@ -1710,7 +1711,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="39" t="s">
         <v>8</v>
       </c>
@@ -1723,7 +1724,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
         <v>10</v>
       </c>
@@ -1734,7 +1735,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
@@ -1745,7 +1746,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
         <v>5</v>
       </c>
@@ -1756,7 +1757,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
         <v>6</v>
       </c>
@@ -1767,7 +1768,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -1809,7 +1810,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <f>A9+1</f>
         <v>2</v>
@@ -1829,7 +1830,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <f t="shared" ref="A11:A40" si="0">A10+1</f>
         <v>3</v>
@@ -1849,7 +1850,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1869,7 +1870,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1891,7 +1892,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1911,7 +1912,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1931,7 +1932,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1951,7 +1952,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1971,7 +1972,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1991,7 +1992,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2013,7 +2014,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2033,7 +2034,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2053,7 +2054,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2073,7 +2074,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2093,7 +2094,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2113,7 +2114,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2133,7 +2134,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2155,7 +2156,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2175,7 +2176,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="21"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2195,7 +2196,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="21"/>
     </row>
-    <row r="29" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2217,7 +2218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2237,7 +2238,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2257,7 +2258,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2277,7 +2278,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="21"/>
     </row>
-    <row r="33" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2297,7 +2298,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2319,7 +2320,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2339,7 +2340,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2359,7 +2360,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="21"/>
     </row>
-    <row r="37" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2381,7 +2382,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2403,7 +2404,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2425,7 +2426,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2445,7 +2446,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="21"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="8">
         <f t="shared" ref="A41:A47" si="1">A40+1</f>
         <v>33</v>
@@ -2465,7 +2466,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="8">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -2487,7 +2488,7 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
     </row>
-    <row r="43" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -2509,7 +2510,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="8">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -2525,7 +2526,7 @@
       </c>
       <c r="E44" s="10"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="8">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -2543,7 +2544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="8">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -2559,7 +2560,7 @@
       </c>
       <c r="E46" s="10"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="8">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -2597,20 +2598,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="27.54296875" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="28"/>
-    <col min="2" max="2" width="130.6640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" style="28"/>
-    <col min="4" max="16384" width="27.5546875" style="30"/>
+    <col min="1" max="1" width="27.54296875" style="28"/>
+    <col min="2" max="2" width="130.6328125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" style="28"/>
+    <col min="4" max="16384" width="27.54296875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="28" t="s">
         <v>82</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="28" t="s">
         <v>108</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="28" t="s">
         <v>109</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="28" t="s">
         <v>110</v>
       </c>
@@ -2665,7 +2666,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="28" t="s">
         <v>118</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="28" t="s">
         <v>113</v>
       </c>
@@ -2687,7 +2688,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="28" t="s">
         <v>116</v>
       </c>
@@ -2698,7 +2699,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="28" t="s">
         <v>143</v>
       </c>
@@ -2709,7 +2710,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="28" t="s">
         <v>147</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="28" t="s">
         <v>144</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxRecord.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F038AED7-2AF3-42B3-BFE0-303C54A23018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546394E9-B0A8-4708-950B-6A2602692A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="152">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -515,10 +517,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TrmType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ErrMsg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1042,17 +1040,29 @@
   <si>
     <t>CalDate = ,AND BrNo =,AND ImportFg =</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxSeq Desc</t>
+  </si>
+  <si>
+    <t>findEntdyFirst</t>
+  </si>
+  <si>
+    <t>TrmType</t>
+  </si>
+  <si>
+    <t>Entdy = , AND TlrNo =, AND TrmType=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1060,7 +1070,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1667,23 +1677,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="53.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.81640625" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="3"/>
+    <col min="1" max="1" width="5.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="53.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="21.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
@@ -1692,13 +1702,13 @@
         <v>21</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="6"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="5" t="s">
@@ -1711,7 +1721,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9">
       <c r="A3" s="39" t="s">
         <v>8</v>
       </c>
@@ -1724,7 +1734,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9">
       <c r="A4" s="39" t="s">
         <v>10</v>
       </c>
@@ -1735,7 +1745,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9">
       <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
@@ -1746,7 +1756,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9">
       <c r="A6" s="39" t="s">
         <v>5</v>
       </c>
@@ -1757,7 +1767,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9">
       <c r="A7" s="39" t="s">
         <v>6</v>
       </c>
@@ -1768,7 +1778,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
@@ -1791,15 +1801,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9">
       <c r="A9" s="8">
         <v>1</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>132</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>133</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>37</v>
@@ -1810,7 +1820,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" s="15" customFormat="1">
       <c r="A10" s="8">
         <f>A9+1</f>
         <v>2</v>
@@ -1830,7 +1840,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" s="15" customFormat="1">
       <c r="A11" s="8">
         <f t="shared" ref="A11:A40" si="0">A10+1</f>
         <v>3</v>
@@ -1850,7 +1860,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" s="15" customFormat="1">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1870,7 +1880,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1892,7 +1902,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1912,16 +1922,16 @@
       <c r="F14" s="8"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" s="15" customFormat="1">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>91</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>92</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>24</v>
@@ -1932,13 +1942,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9">
       <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>52</v>
@@ -1952,13 +1962,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>65</v>
@@ -1972,7 +1982,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" s="15" customFormat="1">
       <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1992,7 +2002,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7">
       <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2014,16 +2024,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" s="15" customFormat="1">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>93</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>94</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>25</v>
@@ -2034,27 +2044,27 @@
       <c r="F20" s="8"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" s="15" customFormat="1">
       <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>105</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>106</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7">
       <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2074,13 +2084,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7">
       <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>29</v>
@@ -2094,13 +2104,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7">
       <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>30</v>
@@ -2114,7 +2124,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7">
       <c r="A25" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2134,16 +2144,16 @@
       <c r="F25" s="8"/>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" s="15" customFormat="1">
       <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>25</v>
@@ -2153,22 +2163,22 @@
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E27" s="8">
         <v>8</v>
@@ -2176,7 +2186,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="21"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7">
       <c r="A28" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2196,16 +2206,16 @@
       <c r="F28" s="8"/>
       <c r="G28" s="21"/>
     </row>
-    <row r="29" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" s="15" customFormat="1">
       <c r="A29" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>24</v>
@@ -2218,7 +2228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" s="15" customFormat="1">
       <c r="A30" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2227,7 +2237,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>24</v>
@@ -2238,33 +2248,33 @@
       <c r="F30" s="10"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" s="15" customFormat="1">
       <c r="A31" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" s="15" customFormat="1">
       <c r="A32" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>64</v>
@@ -2278,7 +2288,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="21"/>
     </row>
-    <row r="33" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" s="15" customFormat="1">
       <c r="A33" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2287,7 +2297,7 @@
         <v>77</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>25</v>
@@ -2298,7 +2308,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" s="15" customFormat="1">
       <c r="A34" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2317,50 +2327,50 @@
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="15" customFormat="1">
       <c r="A35" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="37" t="s">
         <v>96</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>97</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" s="15" customFormat="1">
       <c r="A36" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="D36" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="21"/>
     </row>
-    <row r="37" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" s="15" customFormat="1">
       <c r="A37" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2379,16 +2389,16 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="15" customFormat="1">
       <c r="A38" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>41</v>
@@ -2401,19 +2411,19 @@
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="15" customFormat="1">
       <c r="A39" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>25</v>
@@ -2423,10 +2433,10 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="15" customFormat="1">
       <c r="A40" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2446,7 +2456,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="21"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9">
       <c r="A41" s="8">
         <f t="shared" ref="A41:A47" si="1">A40+1</f>
         <v>33</v>
@@ -2466,7 +2476,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9">
       <c r="A42" s="8">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -2488,29 +2498,29 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
     </row>
-    <row r="43" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" s="15" customFormat="1">
       <c r="A43" s="8">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="8">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -2526,7 +2536,7 @@
       </c>
       <c r="E44" s="10"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9">
       <c r="A45" s="8">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -2544,7 +2554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9">
       <c r="A46" s="8">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -2560,7 +2570,7 @@
       </c>
       <c r="E46" s="10"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9">
       <c r="A47" s="8">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -2596,22 +2606,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.54296875" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="27.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" style="28"/>
-    <col min="2" max="2" width="130.6328125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" style="28"/>
-    <col min="4" max="16384" width="27.54296875" style="30"/>
+    <col min="1" max="1" width="27.5" style="28"/>
+    <col min="2" max="2" width="130.625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="28"/>
+    <col min="4" max="16384" width="27.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
@@ -2622,114 +2632,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="28" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1">
+      <c r="A3" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="28" t="s">
+      <c r="C3" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B4" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="28" t="s">
+      <c r="B7" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>148</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
